--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.021621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.021621.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3253,12 +3253,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4177,12 +4177,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4911,12 +4911,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5633,12 +5633,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5861,12 +5861,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6393,12 +6393,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6777,12 +6777,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6853,12 +6853,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7347,12 +7347,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7693,12 +7693,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7731,12 +7731,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8609,12 +8609,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8685,12 +8685,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8799,12 +8799,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8955,12 +8955,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9297,12 +9297,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9377,12 +9377,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9529,12 +9529,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9833,12 +9833,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9989,12 +9989,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10601,12 +10601,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10791,12 +10791,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11285,12 +11285,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11437,12 +11437,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11745,12 +11745,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11901,12 +11901,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12323,12 +12323,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12399,12 +12399,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12589,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12703,12 +12703,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12893,12 +12893,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12931,12 +12931,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12969,12 +12969,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13045,12 +13045,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13159,12 +13159,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13387,12 +13387,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13425,12 +13425,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13961,12 +13961,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14873,12 +14873,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15405,12 +15405,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15709,12 +15709,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16017,12 +16017,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16093,12 +16093,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16397,12 +16397,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16857,12 +16857,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17123,12 +17123,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17541,12 +17541,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18035,12 +18035,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18301,12 +18301,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18377,12 +18377,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
